--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.1.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.1.xlsx
@@ -8,6 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="sr_1.0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sr_0.75" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sr_0.5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sr_0.3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="sr_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="sr_0.1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="sr_0.05" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.18879056047197</v>
+        <v>86.19503628924126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.413600089308602</v>
+        <v>0.3998116984053922</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8418879056047197</v>
+        <v>0.8619503628924126</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8269775411802002</v>
+        <v>0.8507742611219467</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.23598820058996</v>
+        <v>90.88495575221239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2761687688530098</v>
+        <v>0.2555306063217965</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9023598820058997</v>
+        <v>0.9088495575221238</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8990986854304103</v>
+        <v>0.9042360885525028</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.01804513879878</v>
+        <v>85.69338835111031</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3909084396980082</v>
+        <v>0.4657682580805461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8601804513879878</v>
+        <v>0.8569338835111029</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8514655897061072</v>
+        <v>0.8403916274462817</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.52349933822957</v>
+        <v>88.76642531509788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.303924228840818</v>
+        <v>0.2528800225971887</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8652349933822958</v>
+        <v>0.8876642531509787</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8583949480229874</v>
+        <v>0.8893908925248855</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92.41905206792447</v>
+        <v>90.71021375617435</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2161802494898439</v>
+        <v>0.2908403042703867</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9241905206792446</v>
+        <v>0.9071021375617436</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9239424568954229</v>
+        <v>0.9065386653837632</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.57625065960778</v>
+        <v>84.66595731796988</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4475539054585776</v>
+        <v>0.4092582286025087</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8457625065960779</v>
+        <v>0.8466595731796988</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8417027497023888</v>
+        <v>0.835542535295251</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.87556985787074</v>
+        <v>84.75151169127761</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3435471373784821</v>
+        <v>0.3616786019609814</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8587556985787075</v>
+        <v>0.8475151169127761</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8513666226704821</v>
+        <v>0.8436551441824124</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.03626328947482</v>
+        <v>92.30659434770197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.190475211945765</v>
+        <v>0.1738246642961409</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9203626328947483</v>
+        <v>0.9230659434770198</v>
       </c>
       <c r="E9" t="n">
-        <v>0.920080314152667</v>
+        <v>0.922357345684126</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.00884955752213</v>
+        <v>96.22418879056048</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1615079218812725</v>
+        <v>0.1136879169633573</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9300884955752211</v>
+        <v>0.9622418879056047</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9294935342230588</v>
+        <v>0.962332567689673</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.53808423948304</v>
+        <v>92.30105796762948</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2001120940240071</v>
+        <v>0.1659734367949568</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9253808423948303</v>
+        <v>0.9230105796762947</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9228449006394275</v>
+        <v>0.9179603466990773</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87.87679824219933</v>
+        <v>86.52055813631605</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2955108315179435</v>
+        <v>0.350519643277706</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8787679824219932</v>
+        <v>0.8652055813631605</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8793251050119167</v>
+        <v>0.8568401463476517</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.01160909696451</v>
+        <v>92.15564148478794</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2156537484144792</v>
+        <v>0.2035145480263358</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9201160909696451</v>
+        <v>0.9215564148478794</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9178507035463304</v>
+        <v>0.919941042645165</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87.22748466682238</v>
+        <v>88.34842861962474</v>
       </c>
       <c r="C14" t="n">
-        <v>0.347974500162915</v>
+        <v>0.2912621363209231</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8722748466682237</v>
+        <v>0.8834842861962473</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8592035143512206</v>
+        <v>0.8739273950797835</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81.68539520238065</v>
+        <v>79.16201697246515</v>
       </c>
       <c r="C15" t="n">
-        <v>0.422551751571397</v>
+        <v>0.4692445129699384</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8168539520238063</v>
+        <v>0.7916201697246515</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8036695918453635</v>
+        <v>0.7826251731545102</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.37927663734115</v>
+        <v>88.56010865145893</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4127524094500889</v>
+        <v>0.2864774194507239</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8437927663734115</v>
+        <v>0.8856010865145892</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8386116620217772</v>
+        <v>0.8833338454402166</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.06246593828666</v>
+        <v>93.98264690871028</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1966793706776419</v>
+        <v>0.1595693617350965</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9106246593828666</v>
+        <v>0.9398264690871029</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9043997681143807</v>
+        <v>0.9397869706524231</v>
       </c>
     </row>
     <row r="18">
@@ -771,16 +777,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>88.91166878606217</v>
+        <v>89.47767714253584</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3497188546073933</v>
+        <v>0.2864926372577997</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8891166878606217</v>
+        <v>0.8947767714253583</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8852836976942244</v>
+        <v>0.8919067875945725</v>
       </c>
     </row>
     <row r="19">
@@ -790,16 +796,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.68800768172734</v>
+        <v>94.63161446033271</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1783117079202687</v>
+        <v>0.1598525970441794</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9368800768172735</v>
+        <v>0.946316144603327</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9351351788421656</v>
+        <v>0.9446905826952026</v>
       </c>
     </row>
     <row r="20">
@@ -809,16 +815,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>86.75914151506501</v>
+        <v>87.82160745335167</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3445286424141765</v>
+        <v>0.3089353099911629</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8675914151506501</v>
+        <v>0.8782160745335167</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8592079526699633</v>
+        <v>0.8767534391781929</v>
       </c>
     </row>
     <row r="21">
@@ -828,16 +834,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>74.51076566406284</v>
+        <v>77.38726113547696</v>
       </c>
       <c r="C21" t="n">
-        <v>0.681077238622432</v>
+        <v>0.543301161370861</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7451076566406284</v>
+        <v>0.7738726113547696</v>
       </c>
       <c r="E21" t="n">
-        <v>0.723201763841525</v>
+        <v>0.7581320352860185</v>
       </c>
     </row>
     <row r="22">
@@ -847,16 +853,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.50388844194154</v>
+        <v>85.73638180261075</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2631291741194824</v>
+        <v>0.3793009858500833</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8950388844194155</v>
+        <v>0.8573638180261074</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8877605094915945</v>
+        <v>0.8447790289337884</v>
       </c>
     </row>
     <row r="23">
@@ -866,16 +872,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>88.85197968840562</v>
+        <v>86.58768674469502</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2619558548244337</v>
+        <v>0.3422638028743677</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8885197968840561</v>
+        <v>0.8658768674469502</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8881563465750386</v>
+        <v>0.8630800428903885</v>
       </c>
     </row>
     <row r="24">
@@ -885,16 +891,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.76504987067362</v>
+        <v>89.08571873459114</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2522640720747101</v>
+        <v>0.2730941150424769</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8976504987067362</v>
+        <v>0.8908571873459113</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8959999332235263</v>
+        <v>0.8877711128511603</v>
       </c>
     </row>
     <row r="25">
@@ -904,16 +910,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.96407408368584</v>
+        <v>84.93057898424726</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3635367212817073</v>
+        <v>0.3893205043432924</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8696407408368584</v>
+        <v>0.8493057898424727</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8593981210220105</v>
+        <v>0.8446747189332487</v>
       </c>
     </row>
     <row r="26">
@@ -923,16 +929,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>86.75706537253782</v>
+        <v>85.22193098556215</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3311259190264536</v>
+        <v>0.3555091948073823</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8675706537253782</v>
+        <v>0.8522193098556216</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8525407947700335</v>
+        <v>0.8395028030691055</v>
       </c>
     </row>
     <row r="27">
@@ -942,16 +948,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.91548369795586</v>
+        <v>77.43933771053382</v>
       </c>
       <c r="C27" t="n">
-        <v>0.68939860156194</v>
+        <v>0.7287342043879713</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7991548369795586</v>
+        <v>0.7743933771053383</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7962608013734511</v>
+        <v>0.7600000487088362</v>
       </c>
     </row>
     <row r="28">
@@ -961,16 +967,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.35865362157112</v>
+        <v>78.85526691407365</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7311620052229653</v>
+        <v>0.7845206911176017</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8035865362157113</v>
+        <v>0.7885526691407365</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7883243769568461</v>
+        <v>0.7722378217717847</v>
       </c>
     </row>
     <row r="29">
@@ -980,16 +986,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>96.51917404129793</v>
+        <v>97.05014749262537</v>
       </c>
       <c r="C29" t="n">
-        <v>0.08755222898125795</v>
+        <v>0.07505470901407232</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9651917404129794</v>
+        <v>0.9705014749262537</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9656937137236021</v>
+        <v>0.9705177772746527</v>
       </c>
     </row>
     <row r="30">
@@ -999,16 +1005,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.05309734513274</v>
+        <v>99.08571873459114</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04680675361839046</v>
+        <v>0.02773296911603514</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9805309734513274</v>
+        <v>0.9908571873459113</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9804335965239451</v>
+        <v>0.9908618243210128</v>
       </c>
     </row>
     <row r="31">
@@ -1018,16 +1024,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.72271386430678</v>
+        <v>98.49557522123894</v>
       </c>
       <c r="C31" t="n">
-        <v>0.105790885058813</v>
+        <v>0.05925192441178145</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9572271386430679</v>
+        <v>0.9849557522123893</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9559833956363935</v>
+        <v>0.9849119245544726</v>
       </c>
     </row>
     <row r="32">
@@ -1037,16 +1043,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>88.26480621227981</v>
+        <v>88.43450779562684</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3173819772669092</v>
+        <v>0.3121068722234349</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8826480621227978</v>
+        <v>0.8843450779562684</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8767269289952819</v>
+        <v>0.8786484665320703</v>
       </c>
     </row>
     <row r="33">
@@ -1056,16 +1062,3940 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.108066227243434</v>
+        <v>5.697035515958493</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1624236610758775</v>
+        <v>0.1715000827074824</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05108066227243435</v>
+        <v>0.05697035515958493</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05553158963314507</v>
+        <v>0.06149859449342659</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>84.15981107103002</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.412365656386343</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8415981107103002</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8348897384302078</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>85.846071332797</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3787731488817371</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.85846071332797</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.85713658400021</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>83.89605446413897</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4521922358719166</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8389605446413896</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8277971875553701</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>86.96770733310842</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3160721015650779</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8696770733310842</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8659543676859693</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>91.53530739885294</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2619297416570286</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9153530739885293</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9155450681355569</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>85.3763440860215</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3607889494858682</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8537634408602151</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8505740342582451</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>85.75722973382122</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3446388059671638</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8575722973382123</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8558217054019266</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>88.59946885353679</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2784311559653361</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8859946885353679</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8813181407507372</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>93.83636536648241</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1598019382916367</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.938363653664824</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9377782007288354</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.27553871573284</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1788998632986477</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9227553871573283</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9227524225141277</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>87.3754963278229</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2968922750636315</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.873754963278229</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8728673925383686</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>88.38519364354363</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2943511439875389</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8838519364354364</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8792516657410644</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>87.84660766961652</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2953725171362748</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8784660766961652</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.870959387143633</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>78.70915838372305</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.464382947018991</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7870915838372304</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7696695295217865</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>80.19031306499191</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5171511185045043</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.801903130649919</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7942215190881966</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.12146298843416</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2372579777225231</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9112146298843415</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9103557489084334</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>89.56478862273896</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2680111102487729</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8956478862273896</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.892564072249084</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>93.45219249301465</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1624458624205241</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9345219249301465</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9325219186807823</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>86.6095727471691</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3796306737232953</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8660957274716911</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8540499897034317</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>77.03725810776909</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6584798761953909</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.770372581077691</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7513562786857196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>86.02998295833009</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3807523586709674</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8602998295833009</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8468403191880686</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>87.22765767869964</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3332696960307658</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8722765767869964</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8687240908433095</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>89.08589174646839</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2708238852295229</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.890858917464684</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8888781332797896</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>87.87870137284924</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3203146643160532</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8787870137284924</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8744797540802107</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>83.28125675827646</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.385358963663748</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8328125675827647</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8250051041801421</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>72.29154231437988</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.162346483155397</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7229154231437989</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7056587144923387</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>78.20941357624201</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.7059395814527912</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.78209413576242</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7660525864250366</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>96.54867256637168</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0883847022712871</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9654867256637167</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9656493549772673</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>91.59395842524589</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2250148512294496</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9159395842524589</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9116687431938729</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>97.22852273808597</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.08229731175839941</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9722852273808597</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9721460488721949</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>86.93058475130985</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3557457199056862</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8693058475130984</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8634162600417971</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5.578880324266</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2038235729384417</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.05578880324265998</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.06066426777449698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.81814721580636</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3244003215649476</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8781814721580637</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8767154804188964</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>81.74543032379174</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5325383566630383</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8174543032379173</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7984580292192099</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>82.24967344008166</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5344961040013004</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8224967344008165</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8066789746703131</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>84.4355054974524</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3654368303560963</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.844355054974524</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8398314382356254</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.72686614936114</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4179165062805016</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8572686614936116</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8574881565407502</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>81.78357944272875</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4660690105209748</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8178357944272875</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8166413323770951</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>83.78411577954827</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3985180584357295</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8378411577954827</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8254234167773156</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.29948355954636</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2217605557688633</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9029948355954636</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.900987861155331</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90.32569485895206</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3210129378712734</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9032569485895208</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9000959841756687</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.62431335911211</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2066998500648575</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.906243133591121</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9057658453413993</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.19381655550653</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3926542551334327</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8519381655550653</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8514712759799371</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>88.97879739444113</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3081337748483444</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8897879739444112</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.888592383307573</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>81.74283514563275</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5196847898924413</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8174283514563274</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7977481407156685</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>76.35308263912319</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6262744154781104</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7635308263912318</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7453201925377207</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>77.95361551570515</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5897692323972782</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7795361551570515</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7685663095273427</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.47336049619807</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2384403891027129</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9047336049619806</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9034157424856624</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>83.67165805932578</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4070674284215532</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8367165805932577</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8297465604873281</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>87.37722644659556</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3290722312234114</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8737722644659556</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8705472437684822</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>80.38062612998382</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5653471774732073</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8038062612998382</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7973000105653518</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>71.37925068555957</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8665563239715993</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7137925068555957</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6927022235962295</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>87.20784781875275</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4184908490938445</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8720784781875276</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8556120639937905</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>85.63612141973547</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3481892395143708</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8563612141973547</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.84980802078497</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>86.37600671286084</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3541792902256323</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8637600671286083</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8625180075562359</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>82.93125373056861</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4364769704639911</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.829312537305686</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8257125733552808</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>85.25177553439043</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3831804807132964</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8525177553439043</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8437220087916506</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>75.79070753207208</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9459214336015671</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7579070753207208</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7365088004124771</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>71.95209301118521</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.050983463662366</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7195209301118521</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6904931273619896</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>95.13274336283186</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1263557563215727</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9513274336283185</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9517046246469505</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>91.09577072466024</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2168824696644151</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9109577072466024</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9084216653328134</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>97.28803882386526</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.07753081603458062</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9728803882386525</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9726966771245614</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>84.6986479121792</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.4330013106255103</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8469864791217917</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8390231390414539</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5.990719986582151</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2173422778181758</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.05990719986582151</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0665071345531744</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.60223704357304</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4788440636048715</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7860223704357304</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7808623950584896</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>70.89213574511891</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7248707052941123</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.708921357451189</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7057377008917634</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>72.14084896928173</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7336297377866383</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7214084896928175</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7015636657436346</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>76.84426335867957</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5564566902195415</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7684426335867958</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7677269220077705</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>69.36374882135658</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7289493521054585</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6936374882135659</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.685611456471124</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>71.07189508559763</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8043215900659562</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7107189508559763</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6956739184158869</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>76.40143945881884</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.549261334760619</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7640143945881885</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7582554868833082</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>85.86579468680524</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.387758084050923</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8586579468680524</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.856009639283022</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>83.69752333497695</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3980042488032874</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8369752333497695</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8321511673056909</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>80.96696338203617</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.463649274284641</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8096696338203617</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8082364266316837</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>75.40999489614963</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6042708623533447</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7540999489614962</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7481638672672822</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>77.12177440981324</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6430400225023429</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7712177440981323</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7697862148381655</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>78.1292225711295</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5141822151757272</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7812922257112951</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7697799861581911</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>66.46251265149353</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9145226319630941</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6646251265149352</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6300240997704736</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>68.90777601882368</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8315913488467535</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.689077760188237</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6846626904153137</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>76.6805076168479</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5936853807419539</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.766805076168479</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7650077590319931</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>69.96574364830147</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7283436426582436</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6996574364830146</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6852186854630599</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>77.88337269353541</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6368365754683812</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7788337269353541</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7706432733739433</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>70.40908658379398</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7397922155757745</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7040908658379397</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6947005957390739</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>68.95215356534226</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9655761002097278</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6895215356534227</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6732522224780846</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>79.78027491587298</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6004512126867969</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7978027491587298</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.785850710685532</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>61.50589537971782</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9971085886160532</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6150589537971782</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.576710775633513</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>74.68187441067829</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6822388429194689</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.746818744106783</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7382997763536311</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>67.71693526760612</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8597370008627573</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6771693526760612</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6611102038424896</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>78.88909073607904</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5030967630484763</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7888909073607903</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7813885176735551</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>75.76068997136653</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8043287689487139</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7576068997136653</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7517158216345399</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>70.11185217865207</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8193723486736417</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7011185217865206</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6762193902755202</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>89.43987404735336</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2844574422730753</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8943987404735335</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8944777441874375</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>81.40719210373793</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4373081862839172</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8140719210373792</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7893793929952546</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>97.58215901521639</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.07900831591008076</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.975821590152164</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9756130038834596</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>75.75482775225852</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6354897848898126</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7575482775225854</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7471277836797631</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7.253993179603272</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2032350479119913</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.07253993179603271</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0787874719188045</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>69.82205728423256</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6979387141143282</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6982205728423256</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6920717488499409</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>64.22417148937275</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9848576036592325</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6422417148937274</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6211556184385579</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>73.59146705421327</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7394894354666273</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7359146705421328</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7120018248986596</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>64.91102864211629</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8779817855296036</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6491102864211629</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6283111163838951</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>67.14686113201671</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7393870845437049</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6714686113201671</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6597601068356992</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61.82752445955415</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9647245218356451</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6182752445955415</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6071357828888374</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>74.26681891711867</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7684078068317224</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7426681891711866</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7122405663360043</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>81.57484061280806</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4406371906710168</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8157484061280806</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8142456088255272</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81.52034187146947</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4553662527798831</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8152034187146947</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8143382752125227</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>69.79446188980873</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.78138724428912</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6979446188980873</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6876922704044806</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>71.93089905622021</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7776427739610274</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7193089905622021</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7167843934106652</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>70.75156359484079</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.834101145962874</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7075156359484078</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6967511352001367</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>69.75665879462625</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9550865344703198</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6975665879462625</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6676124746861665</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>58.77325928424987</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.041652179757754</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5877325928424987</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5712394940302365</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>63.56015190442823</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.060729434962074</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6356015190442824</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6152867786721401</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>68.6569087967889</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7810107241074244</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6865690879678891</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6767689477993178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>62.35901694651339</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8486959294726452</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6235901694651338</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5903117017399443</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>72.61645861988426</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7295992376903693</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7261645861988425</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7245531073054634</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>64.63619927508023</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9291907978554568</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6463619927508024</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6319000380218952</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>66.72298203271654</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9826426803444823</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6672298203271654</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6513609977039444</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>74.71085390012024</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9212817086430732</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7471085390012024</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7139195497546408</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>60.63529961331845</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9890482582151889</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6063529961331845</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5842205762015729</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>65.81942750369812</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8598093718290329</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6581942750369812</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6483024046430165</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>65.28170658915734</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8779895412425202</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6528170658915735</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6261613662909271</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>70.52794574347529</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7673148360103369</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.705279457434753</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6880675486413906</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>64.63100891876226</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.164913303971601</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6463100891876227</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6304322159600212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>60.8871184006782</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.04129946877559</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6088711840067821</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5796588639895793</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>76.82324241559184</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6117632213359078</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7682324241559183</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7632489402677411</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>74.48524641216621</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6491120165820272</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7448524641216621</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7228148449617601</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>93.61075787852836</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2389381365991236</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9361075787852837</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9357454416963833</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>69.52854263445187</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8170666313836572</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6952854263445187</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6794697913350356</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7.279470866525018</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1967266463030779</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.07279470866525019</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.07792007287991629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>55.98543239993425</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9751740177472433</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5598543239993425</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5348382404226676</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>55.234214828848</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.056700554490089</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5523421482884799</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5313662396482675</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>67.76581112293358</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8259379085153341</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6776581112293358</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6663938030645278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>62.20841010735387</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8223943936328093</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6220841010735387</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6074150067459122</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>59.78831996816581</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8279984225829443</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5978831996816582</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5783212237330204</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>58.18597046687255</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9724966396888096</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5818597046687255</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5721798954551955</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>72.26394691995606</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.70011140210554</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7226394691995606</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7048076540832084</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>75.5727125667177</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6526625209177535</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7557271256671771</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7531396110761114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>73.9673353575723</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6266147355238597</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7396733535757229</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7399626245872316</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>64.21223366984142</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7903052886327108</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6421223366984143</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6354819757910996</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>61.2419657609495</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.909898430109024</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6124196576094949</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5927604792033044</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>65.79408126367875</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8425741973022619</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6579408126367875</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6516462025726911</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>61.49871538681131</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8624864051739376</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.614987153868113</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6003720254610595</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>57.93908251801486</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9640253881613413</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5793908251801486</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5662771367883873</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>56.86865803337399</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.002809803684553</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.56868658033374</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5435142973463485</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>55.58586146938988</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9716074258089066</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5558586146938987</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5442914474847662</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>64.6488291421206</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8922019541263581</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6464882914212061</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6364752964248309</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>69.19895500826132</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7526555344462394</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6919895500826132</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6833020656329966</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>58.21278730784868</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.116196588675181</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5821278730784869</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5429972903564948</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>64.97625411984532</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.047066261619329</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6497625411984533</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5991605111639504</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>70.12205987941073</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7966741075118383</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7012205987941071</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6890667162092636</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>63.05608180001557</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8762035394708315</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6305608180001557</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.617119596236163</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>62.60685646069603</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.862586360424757</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6260685646069603</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6178124714690287</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>52.94846841235651</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.134426005681356</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5294846841235652</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5100721406680845</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>67.52567063728925</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7460577915112178</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6752567063728925</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6563660218589366</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>54.65626865284302</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.23828206807375</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5465626865284301</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5146257035745622</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>57.13051150961513</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.001732397451997</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5713051150961513</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5315653030367707</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>72.15797714513101</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.698327861726284</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7215797714513101</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7128749333226303</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>78.28588482599331</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4495005535466287</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7828588482599331</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7693860566841676</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>92.91092483498991</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2116028741933405</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9291092483498993</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9296122994517113</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>64.41834271922768</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8542437144178741</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6441834271922767</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6277734756517799</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>8.484470145448974</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2021205281076355</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.08484470145448975</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.09134816497976446</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>46.91217052050623</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.195699853698412</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4691217052050624</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.418126727955373</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>41.03391897853788</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.492910813788573</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4103391897853788</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3743082343175521</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>49.44385332053046</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.104302589098612</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4944385332053045</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4910779338713642</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>40.98469709945588</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.180871590971947</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4098469709945587</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3690398826883824</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>41.74785249007344</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.177420909206073</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4174785249007344</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3716306152954242</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>40.61142397425583</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.313126836220424</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4061142397425583</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3590514120812196</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>68.85950570506665</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7542009696364402</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6885950570506665</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6762099950183126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>63.84060415747541</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8508147087569039</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6384060415747541</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5922549860149809</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>63.42710577081117</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8394447702914476</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6342710577081117</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6150703380878586</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>47.29565134646494</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.240860666831334</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4729565134646494</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4328918527481395</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>43.15218989783649</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.311490698158741</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4315218989783648</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3479590885483123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>55.36457927836746</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.04853472361962</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5536457927836747</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5206503112062956</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>52.24742428567721</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.121064153810342</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5224742428567721</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4879324133438893</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>43.75357918321093</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.168733781576157</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4375357918321093</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.4030036980673357</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>39.36816062422685</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.203838381171227</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3936816062422685</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3498025036954121</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>35.88508551112034</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.476935527225335</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3588508551112034</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3073558107166536</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>41.30502859021271</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.16058553904295</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4130502859021272</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3840474792165625</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>54.00435989930709</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.028719776620468</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5400435989930709</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5022354864648869</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>51.3258765214232</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.321491375317176</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.513258765214232</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4548358491484837</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>51.95209301118522</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.312112474689881</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5195209301118522</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4787471021900457</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>50.38953624166299</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.296367494265238</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5038953624166299</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4743885797199605</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>44.86466145900916</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.194887130955855</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4486466145900916</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4007892602008258</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>51.26618742376665</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.049758939941724</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5126618742376664</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5017292249224548</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>38.33138694971409</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.337421897053719</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.383313869497141</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3353104491327269</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>48.94843380998105</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.407815673450629</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4894843380998106</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4248372043743777</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>35.91233488178963</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.660271306832631</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.3591233488178963</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2941303347730615</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>52.59102587392624</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.153937144577503</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5259102587392623</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4698512367038395</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>54.30194032820354</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.002474874754747</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5430194032820352</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.4976702009506069</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>73.75280062976324</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5665500619274099</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7375280062976324</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7300799750265157</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>83.72036090277598</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.4157699001254514</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8372036090277598</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8315115363572542</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50.21979428887792</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.146280485453899</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5021979428887792</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.463217657427937</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>11.07653781066678</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.259174242965414</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.1107653781066678</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1225983870068527</v>
       </c>
     </row>
   </sheetData>
